--- a/data/negative_signals/Disease - Total occurrences (B-to-X) - Carteolol - all categories.xlsx
+++ b/data/negative_signals/Disease - Total occurrences (B-to-X) - Carteolol - all categories.xlsx
@@ -108,31 +108,31 @@
     <t>carteolol</t>
   </si>
   <si>
-    <t>139006850</t>
+    <t>72659305</t>
   </si>
   <si>
     <t>coexists with</t>
   </si>
   <si>
-    <t>154100650</t>
+    <t>62890163</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>54823515</t>
   </si>
   <si>
     <t>interacts with</t>
   </si>
   <si>
-    <t>182076663</t>
+    <t>115879272</t>
   </si>
   <si>
     <t>stimulates</t>
   </si>
   <si>
-    <t>129332407</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>121210128</t>
+    <t>87782981</t>
   </si>
   <si>
     <t>320774</t>
@@ -141,7 +141,7 @@
     <t>water</t>
   </si>
   <si>
-    <t>161476642</t>
+    <t>95272893</t>
   </si>
   <si>
     <t>uses</t>
@@ -153,28 +153,28 @@
     <t>binding sites</t>
   </si>
   <si>
-    <t>129356945</t>
-  </si>
-  <si>
-    <t>129357281</t>
+    <t>62914036</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>62913574</t>
+  </si>
+  <si>
+    <t>62914110</t>
   </si>
   <si>
     <t>is higher than</t>
   </si>
   <si>
-    <t>129357244</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
     <t>2940391</t>
   </si>
   <si>
     <t>tumor necrosis factor-alpha</t>
   </si>
   <si>
-    <t>198663515</t>
+    <t>132472962</t>
   </si>
   <si>
     <t>inhibits</t>
@@ -186,10 +186,10 @@
     <t>agonists</t>
   </si>
   <si>
-    <t>117900272</t>
-  </si>
-  <si>
-    <t>128839115</t>
+    <t>51695390</t>
+  </si>
+  <si>
+    <t>62460170</t>
   </si>
   <si>
     <t>229603</t>
@@ -198,7 +198,7 @@
     <t>ions</t>
   </si>
   <si>
-    <t>157724757</t>
+    <t>91554280</t>
   </si>
   <si>
     <t>3811276</t>
@@ -207,7 +207,7 @@
     <t>favor</t>
   </si>
   <si>
-    <t>160621094</t>
+    <t>94343147</t>
   </si>
   <si>
     <t>4034527</t>
@@ -216,7 +216,7 @@
     <t>interleukin-6</t>
   </si>
   <si>
-    <t>198663882</t>
+    <t>132473343</t>
   </si>
   <si>
     <t>836641</t>
@@ -225,19 +225,19 @@
     <t>norepinephrine</t>
   </si>
   <si>
-    <t>148044394</t>
-  </si>
-  <si>
-    <t>155280294</t>
-  </si>
-  <si>
-    <t>118506594</t>
-  </si>
-  <si>
-    <t>128622515</t>
-  </si>
-  <si>
-    <t>136666597</t>
+    <t>62293565</t>
+  </si>
+  <si>
+    <t>83546769</t>
+  </si>
+  <si>
+    <t>56105424</t>
+  </si>
+  <si>
+    <t>89010778</t>
+  </si>
+  <si>
+    <t>70344043</t>
   </si>
   <si>
     <t>360728</t>
@@ -246,7 +246,7 @@
     <t>complement system proteins</t>
   </si>
   <si>
-    <t>177794990</t>
+    <t>111568466</t>
   </si>
   <si>
     <t>does not stimulate</t>
@@ -258,10 +258,10 @@
     <t>cyclic amp</t>
   </si>
   <si>
-    <t>125667694</t>
-  </si>
-  <si>
-    <t>133814380</t>
+    <t>67410080</t>
+  </si>
+  <si>
+    <t>59268566</t>
   </si>
   <si>
     <t>821170</t>
@@ -270,16 +270,16 @@
     <t>epinephrine</t>
   </si>
   <si>
-    <t>136666711</t>
-  </si>
-  <si>
-    <t>154102315</t>
-  </si>
-  <si>
-    <t>125667624</t>
-  </si>
-  <si>
-    <t>129487986</t>
+    <t>66149946</t>
+  </si>
+  <si>
+    <t>70344140</t>
+  </si>
+  <si>
+    <t>87784568</t>
+  </si>
+  <si>
+    <t>59268516</t>
   </si>
   <si>
     <t>5698633</t>
@@ -288,7 +288,7 @@
     <t>acetylcholine</t>
   </si>
   <si>
-    <t>141322838</t>
+    <t>77202312</t>
   </si>
   <si>
     <t>4047766</t>
@@ -297,28 +297,40 @@
     <t>histamine</t>
   </si>
   <si>
-    <t>155624778</t>
+    <t>89468512</t>
   </si>
   <si>
     <t>does not interact with</t>
   </si>
   <si>
+    <t>4765631</t>
+  </si>
+  <si>
+    <t>beta-2 adrenergic receptors</t>
+  </si>
+  <si>
+    <t>82208007</t>
+  </si>
+  <si>
+    <t>125263717</t>
+  </si>
+  <si>
     <t>4048108</t>
   </si>
   <si>
     <t>isoproterenol</t>
   </si>
   <si>
-    <t>186143291</t>
-  </si>
-  <si>
-    <t>182083052</t>
-  </si>
-  <si>
-    <t>132388080</t>
-  </si>
-  <si>
-    <t>130224464</t>
+    <t>115885428</t>
+  </si>
+  <si>
+    <t>63785194</t>
+  </si>
+  <si>
+    <t>119934838</t>
+  </si>
+  <si>
+    <t>66003237</t>
   </si>
   <si>
     <t>450061</t>
@@ -327,19 +339,19 @@
     <t>propranolol</t>
   </si>
   <si>
-    <t>117929967</t>
-  </si>
-  <si>
-    <t>156053556</t>
-  </si>
-  <si>
-    <t>186143315</t>
-  </si>
-  <si>
-    <t>133299092</t>
-  </si>
-  <si>
-    <t>159372791</t>
+    <t>119934857</t>
+  </si>
+  <si>
+    <t>66904776</t>
+  </si>
+  <si>
+    <t>89898410</t>
+  </si>
+  <si>
+    <t>51694760</t>
+  </si>
+  <si>
+    <t>93190171</t>
   </si>
   <si>
     <t>3097558</t>
@@ -348,7 +360,16 @@
     <t>human plasma</t>
   </si>
   <si>
-    <t>122849954</t>
+    <t>56428362</t>
+  </si>
+  <si>
+    <t>802574</t>
+  </si>
+  <si>
+    <t>receptors, adrenergic, beta-1</t>
+  </si>
+  <si>
+    <t>79613190</t>
   </si>
   <si>
     <t>837232</t>
@@ -357,7 +378,7 @@
     <t>cytochrome p450</t>
   </si>
   <si>
-    <t>162161478</t>
+    <t>95958828</t>
   </si>
   <si>
     <t>2448998</t>
@@ -366,7 +387,7 @@
     <t>calcium ion</t>
   </si>
   <si>
-    <t>152311348</t>
+    <t>85842521</t>
   </si>
   <si>
     <t>4035264</t>
@@ -375,7 +396,7 @@
     <t>creatinine</t>
   </si>
   <si>
-    <t>132016969</t>
+    <t>65609880</t>
   </si>
   <si>
     <t>5176375</t>
@@ -384,16 +405,16 @@
     <t>adrenergic receptor</t>
   </si>
   <si>
-    <t>129356731</t>
-  </si>
-  <si>
-    <t>117900806</t>
-  </si>
-  <si>
-    <t>134936869</t>
-  </si>
-  <si>
-    <t>158978454</t>
+    <t>51695942</t>
+  </si>
+  <si>
+    <t>92810437</t>
+  </si>
+  <si>
+    <t>62913281</t>
+  </si>
+  <si>
+    <t>68537661</t>
   </si>
   <si>
     <t>99518</t>
@@ -402,10 +423,10 @@
     <t>catecholamines</t>
   </si>
   <si>
-    <t>119600316</t>
-  </si>
-  <si>
-    <t>119600463</t>
+    <t>53319163</t>
+  </si>
+  <si>
+    <t>53319018</t>
   </si>
   <si>
     <t>81243</t>
@@ -414,7 +435,7 @@
     <t>anesthetics</t>
   </si>
   <si>
-    <t>142710704</t>
+    <t>76223909</t>
   </si>
   <si>
     <t>4048132</t>
@@ -423,7 +444,7 @@
     <t>nifedipine</t>
   </si>
   <si>
-    <t>118321627</t>
+    <t>52109328</t>
   </si>
   <si>
     <t>352433</t>
@@ -432,7 +453,7 @@
     <t>endothelin-1 (homo sapiens)</t>
   </si>
   <si>
-    <t>188709354</t>
+    <t>122496133</t>
   </si>
   <si>
     <t>273402</t>
@@ -441,7 +462,7 @@
     <t>serum albumin, bovine</t>
   </si>
   <si>
-    <t>122850382</t>
+    <t>56428795</t>
   </si>
   <si>
     <t>4047943</t>
@@ -450,7 +471,7 @@
     <t>haloperidol</t>
   </si>
   <si>
-    <t>139006685</t>
+    <t>72659058</t>
   </si>
   <si>
     <t>4734434</t>
@@ -459,7 +480,7 @@
     <t>thyroid hormones</t>
   </si>
   <si>
-    <t>128631167</t>
+    <t>62239111</t>
   </si>
   <si>
     <t>5291275</t>
@@ -468,10 +489,10 @@
     <t>aldosterone</t>
   </si>
   <si>
-    <t>129934764</t>
-  </si>
-  <si>
-    <t>119600511</t>
+    <t>53319267</t>
+  </si>
+  <si>
+    <t>63533359</t>
   </si>
   <si>
     <t>327015</t>
@@ -480,10 +501,10 @@
     <t>clonidine</t>
   </si>
   <si>
-    <t>136666655</t>
-  </si>
-  <si>
-    <t>126416234</t>
+    <t>59997130</t>
+  </si>
+  <si>
+    <t>70344096</t>
   </si>
   <si>
     <t>3814551</t>
@@ -492,7 +513,7 @@
     <t>polymers</t>
   </si>
   <si>
-    <t>157724826</t>
+    <t>91554372</t>
   </si>
   <si>
     <t>4443908</t>
@@ -501,10 +522,10 @@
     <t>kininogen-1 (homo sapiens)</t>
   </si>
   <si>
-    <t>162872134</t>
-  </si>
-  <si>
-    <t>162872087</t>
+    <t>96671329</t>
+  </si>
+  <si>
+    <t>96671391</t>
   </si>
   <si>
     <t>555919</t>
@@ -513,7 +534,7 @@
     <t>atrial natriuretic factor</t>
   </si>
   <si>
-    <t>144466514</t>
+    <t>77986315</t>
   </si>
   <si>
     <t>222900</t>
@@ -522,7 +543,7 @@
     <t>electrolytes</t>
   </si>
   <si>
-    <t>145889200</t>
+    <t>81438325</t>
   </si>
   <si>
     <t>4775900</t>
@@ -531,7 +552,7 @@
     <t>calcium channel blockers</t>
   </si>
   <si>
-    <t>185517728</t>
+    <t>119375685</t>
   </si>
   <si>
     <t>4041777</t>
@@ -540,16 +561,7 @@
     <t>calcium channel</t>
   </si>
   <si>
-    <t>185514727</t>
-  </si>
-  <si>
-    <t>802574</t>
-  </si>
-  <si>
-    <t>receptors, adrenergic, beta-1</t>
-  </si>
-  <si>
-    <t>145988414</t>
+    <t>119372672</t>
   </si>
   <si>
     <t>5231409</t>
@@ -558,43 +570,31 @@
     <t>adrenergic beta-antagonists</t>
   </si>
   <si>
-    <t>119599374</t>
-  </si>
-  <si>
-    <t>119599264</t>
-  </si>
-  <si>
-    <t>203666860</t>
+    <t>60210379</t>
+  </si>
+  <si>
+    <t>53318236</t>
+  </si>
+  <si>
+    <t>53318272</t>
+  </si>
+  <si>
+    <t>59298884</t>
+  </si>
+  <si>
+    <t>137473323</t>
   </si>
   <si>
     <t>is parent of</t>
   </si>
   <si>
-    <t>125704906</t>
-  </si>
-  <si>
-    <t>126645640</t>
-  </si>
-  <si>
     <t>4042254</t>
   </si>
   <si>
     <t>cytochromes</t>
   </si>
   <si>
-    <t>162161574</t>
-  </si>
-  <si>
-    <t>4765631</t>
-  </si>
-  <si>
-    <t>beta-2 adrenergic receptors</t>
-  </si>
-  <si>
-    <t>148587652</t>
-  </si>
-  <si>
-    <t>191474512</t>
+    <t>95958967</t>
   </si>
   <si>
     <t>5797747</t>
@@ -603,7 +603,7 @@
     <t>amiloride</t>
   </si>
   <si>
-    <t>131717936</t>
+    <t>65367555</t>
   </si>
   <si>
     <t>5807323</t>
@@ -612,10 +612,10 @@
     <t>beta-endorphin</t>
   </si>
   <si>
-    <t>162872040</t>
-  </si>
-  <si>
-    <t>162872098</t>
+    <t>96671287</t>
+  </si>
+  <si>
+    <t>96671356</t>
   </si>
   <si>
     <t>4042207</t>
@@ -624,7 +624,7 @@
     <t>desipramine</t>
   </si>
   <si>
-    <t>134596884</t>
+    <t>68217311</t>
   </si>
   <si>
     <t>794794</t>
@@ -633,7 +633,7 @@
     <t>metoprolol</t>
   </si>
   <si>
-    <t>148049136</t>
+    <t>83551318</t>
   </si>
   <si>
     <t>640194</t>
@@ -642,7 +642,7 @@
     <t>creatine kinase</t>
   </si>
   <si>
-    <t>123529369</t>
+    <t>57147235</t>
   </si>
   <si>
     <t>4035040</t>
@@ -651,7 +651,7 @@
     <t>diuretics</t>
   </si>
   <si>
-    <t>135237746</t>
+    <t>68835279</t>
   </si>
   <si>
     <t>3815301</t>
@@ -660,16 +660,16 @@
     <t>pilocarpine</t>
   </si>
   <si>
-    <t>129653627</t>
-  </si>
-  <si>
-    <t>154101198</t>
-  </si>
-  <si>
-    <t>131994596</t>
-  </si>
-  <si>
-    <t>154102240</t>
+    <t>87783628</t>
+  </si>
+  <si>
+    <t>63185344</t>
+  </si>
+  <si>
+    <t>65519982</t>
+  </si>
+  <si>
+    <t>87784490</t>
   </si>
   <si>
     <t>5792455</t>
@@ -678,10 +678,10 @@
     <t>atenolol</t>
   </si>
   <si>
-    <t>122479474</t>
-  </si>
-  <si>
-    <t>124639630</t>
+    <t>58215062</t>
+  </si>
+  <si>
+    <t>56056200</t>
   </si>
   <si>
     <t>564203</t>
@@ -690,7 +690,7 @@
     <t>phentolamine</t>
   </si>
   <si>
-    <t>154774795</t>
+    <t>88506010</t>
   </si>
   <si>
     <t>4034783</t>
@@ -699,7 +699,7 @@
     <t>hydrochlorothiazide</t>
   </si>
   <si>
-    <t>131717908</t>
+    <t>65367508</t>
   </si>
   <si>
     <t>3141787</t>
@@ -708,7 +708,7 @@
     <t>analyte</t>
   </si>
   <si>
-    <t>120241548</t>
+    <t>53909945</t>
   </si>
   <si>
     <t>175752</t>
@@ -717,7 +717,7 @@
     <t>adrenergic beta-agonists</t>
   </si>
   <si>
-    <t>128746203</t>
+    <t>62912964</t>
   </si>
   <si>
     <t>3764285</t>
@@ -726,7 +726,7 @@
     <t>pressors</t>
   </si>
   <si>
-    <t>155280306</t>
+    <t>89010786</t>
   </si>
   <si>
     <t>3816049</t>
@@ -735,34 +735,34 @@
     <t>timolol</t>
   </si>
   <si>
-    <t>160100871</t>
-  </si>
-  <si>
-    <t>131662282</t>
-  </si>
-  <si>
-    <t>154102324</t>
-  </si>
-  <si>
-    <t>180105213</t>
+    <t>75424436</t>
+  </si>
+  <si>
+    <t>87784579</t>
+  </si>
+  <si>
+    <t>65206842</t>
+  </si>
+  <si>
+    <t>89876689</t>
+  </si>
+  <si>
+    <t>105955382</t>
+  </si>
+  <si>
+    <t>69588847</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>113884477</t>
   </si>
   <si>
     <t>is lower than</t>
   </si>
   <si>
-    <t>172172865</t>
-  </si>
-  <si>
-    <t>133263924</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>156075504</t>
-  </si>
-  <si>
-    <t>139397409</t>
+    <t>93908289</t>
   </si>
   <si>
     <t>3815450</t>
@@ -771,7 +771,7 @@
     <t>nitrendipine</t>
   </si>
   <si>
-    <t>143477273</t>
+    <t>77115781</t>
   </si>
   <si>
     <t>529027</t>
@@ -780,7 +780,7 @@
     <t>u-44619</t>
   </si>
   <si>
-    <t>148646091</t>
+    <t>82269907</t>
   </si>
   <si>
     <t>381880</t>
@@ -789,7 +789,7 @@
     <t>tritium</t>
   </si>
   <si>
-    <t>140664682</t>
+    <t>74330413</t>
   </si>
   <si>
     <t>3815267</t>
@@ -798,13 +798,13 @@
     <t>pindolol</t>
   </si>
   <si>
-    <t>121320040</t>
-  </si>
-  <si>
-    <t>135237970</t>
-  </si>
-  <si>
-    <t>121320106</t>
+    <t>68835362</t>
+  </si>
+  <si>
+    <t>54898537</t>
+  </si>
+  <si>
+    <t>54898583</t>
   </si>
   <si>
     <t>5254283</t>
@@ -813,10 +813,10 @@
     <t>adrenergic agonists</t>
   </si>
   <si>
-    <t>129357169</t>
-  </si>
-  <si>
-    <t>129357211</t>
+    <t>62913968</t>
+  </si>
+  <si>
+    <t>62913881</t>
   </si>
   <si>
     <t>507262</t>
@@ -825,10 +825,10 @@
     <t>adrenergic antagonists</t>
   </si>
   <si>
-    <t>135233766</t>
-  </si>
-  <si>
-    <t>184664328</t>
+    <t>118468165</t>
+  </si>
+  <si>
+    <t>68831222</t>
   </si>
   <si>
     <t>2710528</t>
@@ -837,7 +837,7 @@
     <t>u 73122</t>
   </si>
   <si>
-    <t>124893541</t>
+    <t>58410587</t>
   </si>
   <si>
     <t>5318743</t>
@@ -846,7 +846,7 @@
     <t>glucose-6-phosphate</t>
   </si>
   <si>
-    <t>126070835</t>
+    <t>59648508</t>
   </si>
   <si>
     <t>727318</t>
@@ -855,10 +855,10 @@
     <t>sympathomimetics</t>
   </si>
   <si>
-    <t>117917723</t>
-  </si>
-  <si>
-    <t>148358336</t>
+    <t>51711341</t>
+  </si>
+  <si>
+    <t>81889500</t>
   </si>
   <si>
     <t>643701</t>
@@ -867,7 +867,7 @@
     <t>pharmaceutical preservatives</t>
   </si>
   <si>
-    <t>170238754</t>
+    <t>104036578</t>
   </si>
   <si>
     <t>4028744</t>
@@ -876,10 +876,10 @@
     <t>nadolol</t>
   </si>
   <si>
-    <t>146092037</t>
-  </si>
-  <si>
-    <t>143378115</t>
+    <t>79734773</t>
+  </si>
+  <si>
+    <t>79089594</t>
   </si>
   <si>
     <t>3215428</t>
@@ -888,7 +888,7 @@
     <t>endothelium-dependent relaxing factors</t>
   </si>
   <si>
-    <t>126415967</t>
+    <t>59996895</t>
   </si>
   <si>
     <t>5698641</t>
@@ -897,7 +897,7 @@
     <t>bisoprolol</t>
   </si>
   <si>
-    <t>191474194</t>
+    <t>125263356</t>
   </si>
   <si>
     <t>560752</t>
@@ -906,7 +906,7 @@
     <t>ici 118551</t>
   </si>
   <si>
-    <t>145988675</t>
+    <t>79613430</t>
   </si>
   <si>
     <t>4041438</t>
@@ -915,7 +915,7 @@
     <t>betaxolol</t>
   </si>
   <si>
-    <t>172174622</t>
+    <t>105957178</t>
   </si>
   <si>
     <t>5211975</t>
@@ -924,7 +924,7 @@
     <t>latanoprost</t>
   </si>
   <si>
-    <t>179155844</t>
+    <t>112950064</t>
   </si>
   <si>
     <t>5126934</t>
@@ -933,7 +933,7 @@
     <t>timolol maleate</t>
   </si>
   <si>
-    <t>143652125</t>
+    <t>77288560</t>
   </si>
   <si>
     <t>150394</t>
@@ -942,7 +942,7 @@
     <t>biperiden</t>
   </si>
   <si>
-    <t>159372754</t>
+    <t>93190138</t>
   </si>
   <si>
     <t>4035056</t>
@@ -951,7 +951,31 @@
     <t>dilevalol</t>
   </si>
   <si>
-    <t>129226017</t>
+    <t>62780289</t>
+  </si>
+  <si>
+    <t>248362</t>
+  </si>
+  <si>
+    <t>dorzolamide</t>
+  </si>
+  <si>
+    <t>114941217</t>
+  </si>
+  <si>
+    <t>53318435</t>
+  </si>
+  <si>
+    <t>53319327</t>
+  </si>
+  <si>
+    <t>5138626</t>
+  </si>
+  <si>
+    <t>alginic acid</t>
+  </si>
+  <si>
+    <t>91554407</t>
   </si>
   <si>
     <t>5200047</t>
@@ -960,31 +984,7 @@
     <t>uk 14,304</t>
   </si>
   <si>
-    <t>141322748</t>
-  </si>
-  <si>
-    <t>248362</t>
-  </si>
-  <si>
-    <t>dorzolamide</t>
-  </si>
-  <si>
-    <t>181144593</t>
-  </si>
-  <si>
-    <t>119599554</t>
-  </si>
-  <si>
-    <t>119600567</t>
-  </si>
-  <si>
-    <t>5138626</t>
-  </si>
-  <si>
-    <t>alginic acid</t>
-  </si>
-  <si>
-    <t>157724876</t>
+    <t>77202202</t>
   </si>
   <si>
     <t>5265529</t>
@@ -993,7 +993,7 @@
     <t>quinolones</t>
   </si>
   <si>
-    <t>204405884</t>
+    <t>138212417</t>
   </si>
   <si>
     <t>2564992</t>
@@ -1002,7 +1002,7 @@
     <t>cardiac myosins</t>
   </si>
   <si>
-    <t>125376371</t>
+    <t>58959853</t>
   </si>
   <si>
     <t>2449581</t>
@@ -1011,7 +1011,7 @@
     <t>ocular hypotensive</t>
   </si>
   <si>
-    <t>152786344</t>
+    <t>86382158</t>
   </si>
   <si>
     <t>4041868</t>
@@ -1020,7 +1020,7 @@
     <t>levobunolol</t>
   </si>
   <si>
-    <t>153618764</t>
+    <t>87352824</t>
   </si>
   <si>
     <t>4035329</t>
@@ -1029,7 +1029,7 @@
     <t>eye drops</t>
   </si>
   <si>
-    <t>165344858</t>
+    <t>99150413</t>
   </si>
   <si>
     <t>5807233</t>
@@ -1038,10 +1038,10 @@
     <t>xamoterol</t>
   </si>
   <si>
-    <t>182070402</t>
-  </si>
-  <si>
-    <t>182068206</t>
+    <t>115873251</t>
+  </si>
+  <si>
+    <t>115871253</t>
   </si>
   <si>
     <t>3814734</t>
@@ -1050,10 +1050,10 @@
     <t>metipranolol</t>
   </si>
   <si>
-    <t>172173530</t>
-  </si>
-  <si>
-    <t>143651662</t>
+    <t>77288042</t>
+  </si>
+  <si>
+    <t>105955958</t>
   </si>
   <si>
     <t>6114342</t>
@@ -1062,10 +1062,10 @@
     <t>beta adrenergic agent</t>
   </si>
   <si>
-    <t>162871568</t>
-  </si>
-  <si>
-    <t>162871685</t>
+    <t>96670859</t>
+  </si>
+  <si>
+    <t>96670726</t>
   </si>
   <si>
     <t>4766963</t>
@@ -1074,10 +1074,10 @@
     <t>nipradilol</t>
   </si>
   <si>
-    <t>188775501</t>
-  </si>
-  <si>
-    <t>188775552</t>
+    <t>122573315</t>
+  </si>
+  <si>
+    <t>122573250</t>
   </si>
   <si>
     <t>2557492</t>
@@ -1086,10 +1086,10 @@
     <t>travoprost</t>
   </si>
   <si>
-    <t>134723289</t>
-  </si>
-  <si>
-    <t>134724950</t>
+    <t>68328476</t>
+  </si>
+  <si>
+    <t>68326796</t>
   </si>
   <si>
     <t>4795633</t>
@@ -1098,13 +1098,13 @@
     <t>befunolol</t>
   </si>
   <si>
-    <t>154100980</t>
-  </si>
-  <si>
-    <t>154102370</t>
-  </si>
-  <si>
-    <t>154711976</t>
+    <t>87783348</t>
+  </si>
+  <si>
+    <t>87784622</t>
+  </si>
+  <si>
+    <t>88442226</t>
   </si>
   <si>
     <t>3113529</t>
@@ -1113,19 +1113,19 @@
     <t>carteolol hydrochloride</t>
   </si>
   <si>
-    <t>203812602</t>
+    <t>137622626</t>
+  </si>
+  <si>
+    <t>62889642</t>
+  </si>
+  <si>
+    <t>139093218</t>
   </si>
   <si>
     <t>converts to</t>
   </si>
   <si>
-    <t>129331765</t>
-  </si>
-  <si>
-    <t>203812599</t>
-  </si>
-  <si>
-    <t>205287458</t>
+    <t>137622630</t>
   </si>
   <si>
     <t>3728333</t>
@@ -1134,7 +1134,7 @@
     <t>non-cardioselective beta-blocker</t>
   </si>
   <si>
-    <t>204414857</t>
+    <t>138231715</t>
   </si>
   <si>
     <t>4028453</t>
@@ -1143,7 +1143,7 @@
     <t>ophthalmic solution</t>
   </si>
   <si>
-    <t>150018096</t>
+    <t>85521536</t>
   </si>
   <si>
     <t>3806473</t>
@@ -1152,10 +1152,10 @@
     <t>non-selective beta-blocking agent, nos</t>
   </si>
   <si>
-    <t>132596871</t>
-  </si>
-  <si>
-    <t>203732418</t>
+    <t>66253015</t>
+  </si>
+  <si>
+    <t>137548929</t>
   </si>
   <si>
     <t>238594</t>
@@ -1164,7 +1164,7 @@
     <t>phenoxypropanolamines</t>
   </si>
   <si>
-    <t>203847911</t>
+    <t>137661644</t>
   </si>
   <si>
     <t>466734</t>
@@ -1173,7 +1173,7 @@
     <t>opc-1085</t>
   </si>
   <si>
-    <t>203812569</t>
+    <t>137622600</t>
   </si>
   <si>
     <t>4794738</t>
@@ -1182,10 +1182,10 @@
     <t>bufetolol</t>
   </si>
   <si>
-    <t>121320257</t>
-  </si>
-  <si>
-    <t>121320239</t>
+    <t>54898696</t>
+  </si>
+  <si>
+    <t>54898721</t>
   </si>
   <si>
     <t>2678947</t>
@@ -1194,7 +1194,7 @@
     <t>beta-adrenergic blocking agents, ophthalmic</t>
   </si>
   <si>
-    <t>203889016</t>
+    <t>137702302</t>
   </si>
   <si>
     <t>3362594</t>
@@ -1203,7 +1203,7 @@
     <t>ocupress</t>
   </si>
   <si>
-    <t>180985806</t>
+    <t>114814781</t>
   </si>
   <si>
     <t>4824729</t>
@@ -1212,10 +1212,10 @@
     <t>8-hydroxycarteolol</t>
   </si>
   <si>
-    <t>165705384</t>
-  </si>
-  <si>
-    <t>124512037</t>
+    <t>58104724</t>
+  </si>
+  <si>
+    <t>99503855</t>
   </si>
   <si>
     <t>2483872</t>
@@ -1224,7 +1224,7 @@
     <t>carteolol hydrochloride 10 mg/ml ophthalmic solution</t>
   </si>
   <si>
-    <t>203812697</t>
+    <t>137622712</t>
   </si>
   <si>
     <t>2368901</t>
@@ -1233,7 +1233,7 @@
     <t>carteolol ophthalmic</t>
   </si>
   <si>
-    <t>162732472</t>
+    <t>96532622</t>
   </si>
   <si>
     <t>1114283</t>
@@ -1242,7 +1242,7 @@
     <t>carteolol hydrochloride 10 mg/ml</t>
   </si>
   <si>
-    <t>203812756</t>
+    <t>137622783</t>
   </si>
   <si>
     <t>is ingredient of</t>
@@ -1254,7 +1254,7 @@
     <t>carteolol hydrochloride 2.5 mg</t>
   </si>
   <si>
-    <t>203812773</t>
+    <t>137622800</t>
   </si>
   <si>
     <t>876376</t>
@@ -1263,7 +1263,7 @@
     <t>carteolol hydrochloride 20 mg/ml</t>
   </si>
   <si>
-    <t>203812804</t>
+    <t>137622834</t>
   </si>
   <si>
     <t>875022</t>
@@ -1272,7 +1272,7 @@
     <t>carteolol hydrochloride 5 mg</t>
   </si>
   <si>
-    <t>203812790</t>
+    <t>137622818</t>
   </si>
   <si>
     <t>3216678</t>
@@ -1281,7 +1281,7 @@
     <t>carteolol 10 mg</t>
   </si>
   <si>
-    <t>203812736</t>
+    <t>137622748</t>
   </si>
   <si>
     <t>3046549</t>
@@ -1290,7 +1290,7 @@
     <t>carteolol 10mg tablet</t>
   </si>
   <si>
-    <t>203812587</t>
+    <t>137622616</t>
   </si>
   <si>
     <t>2472196</t>
@@ -1299,7 +1299,7 @@
     <t>carteolol hydrochloride 20 mg/ml ophthalmic solution</t>
   </si>
   <si>
-    <t>203812689</t>
+    <t>137622696</t>
   </si>
   <si>
     <t>2359419</t>
@@ -1308,10 +1308,10 @@
     <t>carteolol hydrochloride 2.5 mg oral tablet</t>
   </si>
   <si>
-    <t>203812623</t>
-  </si>
-  <si>
-    <t>203812626</t>
+    <t>137622651</t>
+  </si>
+  <si>
+    <t>137622655</t>
   </si>
   <si>
     <t>2359380</t>
@@ -1320,10 +1320,10 @@
     <t>carteolol hydrochloride 5 mg oral tablet</t>
   </si>
   <si>
-    <t>203812654</t>
-  </si>
-  <si>
-    <t>203812646</t>
+    <t>137622676</t>
+  </si>
+  <si>
+    <t>137622681</t>
   </si>
   <si>
     <t>41391</t>
@@ -1332,7 +1332,7 @@
     <t>8-hydroxycarteolol hydrochloride</t>
   </si>
   <si>
-    <t>150017985</t>
+    <t>85521362</t>
   </si>
   <si>
     <t>3014931</t>
@@ -1341,7 +1341,7 @@
     <t>carteolol 20 mg</t>
   </si>
   <si>
-    <t>203812745</t>
+    <t>137622772</t>
   </si>
   <si>
     <t>3196058</t>
@@ -1350,7 +1350,7 @@
     <t>carteolol oral tablet</t>
   </si>
   <si>
-    <t>203812722</t>
+    <t>137622736</t>
   </si>
   <si>
     <t>3194992</t>
@@ -1359,7 +1359,7 @@
     <t>carteolol ophthalmic solution</t>
   </si>
   <si>
-    <t>203812712</t>
+    <t>137622723</t>
   </si>
   <si>
     <t>1100215</t>
@@ -1368,7 +1368,7 @@
     <t>carteolol oral product</t>
   </si>
   <si>
-    <t>203812835</t>
+    <t>137622858</t>
   </si>
   <si>
     <t>1099903</t>
@@ -1377,7 +1377,7 @@
     <t>carteolol pill</t>
   </si>
   <si>
-    <t>203812851</t>
+    <t>137622873</t>
   </si>
   <si>
     <t>1099743</t>
@@ -1386,7 +1386,7 @@
     <t>carteolol ophthalmic product</t>
   </si>
   <si>
-    <t>203812818</t>
+    <t>137622845</t>
   </si>
   <si>
     <t>2449184</t>
@@ -1398,7 +1398,7 @@
     <t>Anatomy</t>
   </si>
   <si>
-    <t>123209947</t>
+    <t>56783877</t>
   </si>
   <si>
     <t>is location of</t>
@@ -1410,7 +1410,7 @@
     <t>cells</t>
   </si>
   <si>
-    <t>188489181</t>
+    <t>122274520</t>
   </si>
   <si>
     <t>augments</t>
@@ -1422,7 +1422,7 @@
     <t>lung</t>
   </si>
   <si>
-    <t>135073479</t>
+    <t>68624441</t>
   </si>
   <si>
     <t>3192698</t>
@@ -1431,7 +1431,7 @@
     <t>smooth muscle (tissue)</t>
   </si>
   <si>
-    <t>133814843</t>
+    <t>67410466</t>
   </si>
   <si>
     <t>431254</t>
@@ -1440,7 +1440,7 @@
     <t>brain</t>
   </si>
   <si>
-    <t>125689702</t>
+    <t>59288694</t>
   </si>
   <si>
     <t>613023</t>
@@ -1449,7 +1449,7 @@
     <t>body tissue</t>
   </si>
   <si>
-    <t>199879289</t>
+    <t>133685824</t>
   </si>
   <si>
     <t>615763</t>
@@ -1458,7 +1458,7 @@
     <t>microsomes, liver</t>
   </si>
   <si>
-    <t>163647634</t>
+    <t>97440489</t>
   </si>
   <si>
     <t>3764997</t>
@@ -1467,7 +1467,7 @@
     <t>adipocytes</t>
   </si>
   <si>
-    <t>176783945</t>
+    <t>110610111</t>
   </si>
   <si>
     <t>41562</t>
@@ -1476,7 +1476,7 @@
     <t>endoplasmic reticulum</t>
   </si>
   <si>
-    <t>124886592</t>
+    <t>58403034</t>
   </si>
   <si>
     <t>disrupts</t>
@@ -1488,7 +1488,7 @@
     <t>renal tubule structure</t>
   </si>
   <si>
-    <t>145889098</t>
+    <t>81438227</t>
   </si>
   <si>
     <t>544027</t>
@@ -1497,7 +1497,7 @@
     <t>kidney</t>
   </si>
   <si>
-    <t>129226219</t>
+    <t>62780528</t>
   </si>
   <si>
     <t>affects</t>
@@ -1509,16 +1509,16 @@
     <t>heart</t>
   </si>
   <si>
-    <t>125002671</t>
-  </si>
-  <si>
-    <t>129935652</t>
+    <t>63533943</t>
   </si>
   <si>
     <t>does not affect</t>
   </si>
   <si>
-    <t>120848539</t>
+    <t>54490779</t>
+  </si>
+  <si>
+    <t>58591890</t>
   </si>
   <si>
     <t>4041592</t>
@@ -1527,10 +1527,10 @@
     <t>eye</t>
   </si>
   <si>
-    <t>121752552</t>
-  </si>
-  <si>
-    <t>131664220</t>
+    <t>65277385</t>
+  </si>
+  <si>
+    <t>55321819</t>
   </si>
   <si>
     <t>5797655</t>
@@ -1539,7 +1539,7 @@
     <t>organ</t>
   </si>
   <si>
-    <t>149459721</t>
+    <t>82992668</t>
   </si>
   <si>
     <t>2863639</t>
@@ -1548,7 +1548,7 @@
     <t>peripheral blood mononuclear cell (cell)</t>
   </si>
   <si>
-    <t>198668147</t>
+    <t>132477470</t>
   </si>
   <si>
     <t>5698646</t>
@@ -1557,7 +1557,7 @@
     <t>retina</t>
   </si>
   <si>
-    <t>165399884</t>
+    <t>99205679</t>
   </si>
   <si>
     <t>31905</t>
@@ -1566,7 +1566,7 @@
     <t>arteries</t>
   </si>
   <si>
-    <t>119153840</t>
+    <t>52865774</t>
   </si>
   <si>
     <t>3247936</t>
@@ -1575,7 +1575,7 @@
     <t>entire nerve</t>
   </si>
   <si>
-    <t>151445130</t>
+    <t>84975445</t>
   </si>
   <si>
     <t>366285</t>
@@ -1584,7 +1584,7 @@
     <t>blood supply aspects</t>
   </si>
   <si>
-    <t>165399915</t>
+    <t>99205731</t>
   </si>
   <si>
     <t>4034855</t>
@@ -1593,7 +1593,7 @@
     <t>endothelium</t>
   </si>
   <si>
-    <t>141322525</t>
+    <t>77201941</t>
   </si>
   <si>
     <t>151734</t>
@@ -1602,7 +1602,7 @@
     <t>trachea</t>
   </si>
   <si>
-    <t>126192671</t>
+    <t>63015280</t>
   </si>
   <si>
     <t>4041052</t>
@@ -1611,7 +1611,7 @@
     <t>cornea</t>
   </si>
   <si>
-    <t>123209057</t>
+    <t>56783284</t>
   </si>
   <si>
     <t>586644</t>
@@ -1620,7 +1620,7 @@
     <t>femur</t>
   </si>
   <si>
-    <t>141322446</t>
+    <t>77201871</t>
   </si>
   <si>
     <t>does not augment</t>
@@ -1632,7 +1632,7 @@
     <t>coronary artery</t>
   </si>
   <si>
-    <t>141322485</t>
+    <t>77201909</t>
   </si>
   <si>
     <t>3177498</t>
@@ -1641,7 +1641,7 @@
     <t>membrane fraction</t>
   </si>
   <si>
-    <t>126645925</t>
+    <t>60210877</t>
   </si>
   <si>
     <t>3248161</t>
@@ -1650,7 +1650,7 @@
     <t>entire atrium</t>
   </si>
   <si>
-    <t>125003327</t>
+    <t>58592561</t>
   </si>
   <si>
     <t>4041656</t>
@@ -1659,7 +1659,7 @@
     <t>cecum</t>
   </si>
   <si>
-    <t>129357079</t>
+    <t>62913733</t>
   </si>
   <si>
     <t>3211777</t>
@@ -1668,7 +1668,7 @@
     <t>entire pulmonary artery</t>
   </si>
   <si>
-    <t>135236782</t>
+    <t>68834324</t>
   </si>
   <si>
     <t>2883704</t>
@@ -1677,7 +1677,7 @@
     <t>entire iris</t>
   </si>
   <si>
-    <t>133632954</t>
+    <t>67293974</t>
   </si>
   <si>
     <t>5243228</t>
@@ -1686,7 +1686,7 @@
     <t>choroid</t>
   </si>
   <si>
-    <t>133633081</t>
+    <t>67294143</t>
   </si>
   <si>
     <t>757598</t>
@@ -1695,7 +1695,7 @@
     <t>pulmonary artery structure</t>
   </si>
   <si>
-    <t>134596710</t>
+    <t>68217165</t>
   </si>
   <si>
     <t>4042335</t>
@@ -1704,7 +1704,7 @@
     <t>brown fat</t>
   </si>
   <si>
-    <t>161476860</t>
+    <t>95273140</t>
   </si>
   <si>
     <t>5239072</t>
@@ -1713,7 +1713,7 @@
     <t>ciliary body</t>
   </si>
   <si>
-    <t>154712228</t>
+    <t>88442464</t>
   </si>
   <si>
     <t>4027101</t>
@@ -1722,7 +1722,7 @@
     <t>optic disk</t>
   </si>
   <si>
-    <t>121752165</t>
+    <t>55321328</t>
   </si>
   <si>
     <t>2357315</t>
@@ -1731,7 +1731,7 @@
     <t>wall of ventricle</t>
   </si>
   <si>
-    <t>126070253</t>
+    <t>59648092</t>
   </si>
   <si>
     <t>4736864</t>
@@ -1740,7 +1740,7 @@
     <t>structure of renal artery</t>
   </si>
   <si>
-    <t>140393320</t>
+    <t>73903859</t>
   </si>
   <si>
     <t>90788</t>
@@ -1749,7 +1749,7 @@
     <t>gastric fundus</t>
   </si>
   <si>
-    <t>158978681</t>
+    <t>92810680</t>
   </si>
   <si>
     <t>650964</t>
@@ -1758,7 +1758,7 @@
     <t>structure of blood vessel of retina</t>
   </si>
   <si>
-    <t>124511214</t>
+    <t>58103960</t>
   </si>
   <si>
     <t>3262625</t>
@@ -1767,7 +1767,7 @@
     <t>corneal endothelial cell</t>
   </si>
   <si>
-    <t>170265726</t>
+    <t>104046722</t>
   </si>
   <si>
     <t>3767727</t>
@@ -1776,7 +1776,7 @@
     <t>melanosome, completely melanized</t>
   </si>
   <si>
-    <t>154670288</t>
+    <t>88400158</t>
   </si>
   <si>
     <t>3774788</t>
@@ -1785,7 +1785,7 @@
     <t>pigment tissue</t>
   </si>
   <si>
-    <t>190328688</t>
+    <t>124187924</t>
   </si>
   <si>
     <t>3779445</t>
@@ -1794,10 +1794,10 @@
     <t>structure of ciliary artery</t>
   </si>
   <si>
-    <t>148645801</t>
-  </si>
-  <si>
-    <t>148646194</t>
+    <t>82270624</t>
+  </si>
+  <si>
+    <t>82269630</t>
   </si>
   <si>
     <t>2883689</t>
@@ -1806,7 +1806,7 @@
     <t>entire ciliary artery</t>
   </si>
   <si>
-    <t>139418108</t>
+    <t>73064046</t>
   </si>
   <si>
     <t>3193625</t>
@@ -1815,7 +1815,7 @@
     <t>entire long posterior ciliary artery</t>
   </si>
   <si>
-    <t>160100193</t>
+    <t>93907555</t>
   </si>
   <si>
     <t>2961813</t>
@@ -1827,7 +1827,7 @@
     <t>Genes &amp; Molecular Sequences</t>
   </si>
   <si>
-    <t>181664762</t>
+    <t>115466087</t>
   </si>
   <si>
     <t>2786011</t>
@@ -1836,7 +1836,7 @@
     <t>cyp1a2 (homo sapiens)</t>
   </si>
   <si>
-    <t>162162111</t>
+    <t>95959549</t>
   </si>
   <si>
     <t>2786059</t>
@@ -1845,7 +1845,7 @@
     <t>cyp2d6 (homo sapiens)</t>
   </si>
   <si>
-    <t>162162059</t>
+    <t>95959496</t>
   </si>
   <si>
     <t>2792139</t>
@@ -1854,31 +1854,31 @@
     <t>adrb2 (homo sapiens)</t>
   </si>
   <si>
-    <t>85781203</t>
-  </si>
-  <si>
-    <t>110915333</t>
-  </si>
-  <si>
-    <t>85781186</t>
+    <t>19757793</t>
   </si>
   <si>
     <t>binds with</t>
   </si>
   <si>
+    <t>44705034</t>
+  </si>
+  <si>
+    <t>19757804</t>
+  </si>
+  <si>
     <t>2251195</t>
   </si>
   <si>
     <t>adrb1 (homo sapiens)</t>
   </si>
   <si>
-    <t>110915276</t>
-  </si>
-  <si>
-    <t>89157655</t>
-  </si>
-  <si>
-    <t>89157641</t>
+    <t>17435892</t>
+  </si>
+  <si>
+    <t>17435918</t>
+  </si>
+  <si>
+    <t>44704989</t>
   </si>
   <si>
     <t>2999491</t>
@@ -1887,7 +1887,7 @@
     <t>mrap (homo sapiens)</t>
   </si>
   <si>
-    <t>184523608</t>
+    <t>118327728</t>
   </si>
   <si>
     <t>2963574</t>
@@ -1896,7 +1896,7 @@
     <t>anxa13 (homo sapiens)</t>
   </si>
   <si>
-    <t>145016473</t>
+    <t>80646837</t>
   </si>
   <si>
     <t>1669597</t>
@@ -1908,7 +1908,7 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>143370483</t>
+    <t>76883589</t>
   </si>
   <si>
     <t>treats</t>
@@ -1920,22 +1920,22 @@
     <t>hypertensive disease</t>
   </si>
   <si>
-    <t>136995958</t>
+    <t>14038927</t>
+  </si>
+  <si>
+    <t>70582059</t>
   </si>
   <si>
     <t>prevents</t>
   </si>
   <si>
-    <t>80235294</t>
-  </si>
-  <si>
     <t>3072277</t>
   </si>
   <si>
     <t>antimicrobial susceptibility</t>
   </si>
   <si>
-    <t>142710805</t>
+    <t>76224023</t>
   </si>
   <si>
     <t>does not inhibit</t>
@@ -1947,7 +1947,19 @@
     <t>observation parameter</t>
   </si>
   <si>
-    <t>124948320</t>
+    <t>58558033</t>
+  </si>
+  <si>
+    <t>1595282</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>62880754</t>
+  </si>
+  <si>
+    <t>80887598</t>
   </si>
   <si>
     <t>3262699</t>
@@ -1956,34 +1968,22 @@
     <t>contraction (finding)</t>
   </si>
   <si>
-    <t>145988752</t>
-  </si>
-  <si>
-    <t>191474156</t>
-  </si>
-  <si>
-    <t>141322876</t>
-  </si>
-  <si>
-    <t>148646137</t>
+    <t>119373597</t>
+  </si>
+  <si>
+    <t>82269938</t>
   </si>
   <si>
     <t>does not cause</t>
   </si>
   <si>
-    <t>185515678</t>
-  </si>
-  <si>
-    <t>1595282</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>126052838</t>
-  </si>
-  <si>
-    <t>145284359</t>
+    <t>77202371</t>
+  </si>
+  <si>
+    <t>79613502</t>
+  </si>
+  <si>
+    <t>125263296</t>
   </si>
   <si>
     <t>2506281</t>
@@ -1992,10 +1992,10 @@
     <t>adverse effects</t>
   </si>
   <si>
-    <t>160786721</t>
-  </si>
-  <si>
-    <t>130938372</t>
+    <t>64558416</t>
+  </si>
+  <si>
+    <t>94592646</t>
   </si>
   <si>
     <t>4049113</t>
@@ -2004,7 +2004,7 @@
     <t>ischemia</t>
   </si>
   <si>
-    <t>160620845</t>
+    <t>94342923</t>
   </si>
   <si>
     <t>3202301</t>
@@ -2013,22 +2013,22 @@
     <t>systemic arterial pressure</t>
   </si>
   <si>
-    <t>138512525</t>
-  </si>
-  <si>
-    <t>135504509</t>
-  </si>
-  <si>
-    <t>118323577</t>
-  </si>
-  <si>
-    <t>135238426</t>
+    <t>68835685</t>
   </si>
   <si>
     <t>causes</t>
   </si>
   <si>
-    <t>135234710</t>
+    <t>69003576</t>
+  </si>
+  <si>
+    <t>52110989</t>
+  </si>
+  <si>
+    <t>74601802</t>
+  </si>
+  <si>
+    <t>68832155</t>
   </si>
   <si>
     <t>4048530</t>
@@ -2037,7 +2037,7 @@
     <t>hypotension</t>
   </si>
   <si>
-    <t>149465895</t>
+    <t>83047344</t>
   </si>
   <si>
     <t>603590</t>
@@ -2046,7 +2046,7 @@
     <t>headache</t>
   </si>
   <si>
-    <t>165066587</t>
+    <t>98864979</t>
   </si>
   <si>
     <t>837296</t>
@@ -2055,7 +2055,7 @@
     <t>cardiac arrhythmia</t>
   </si>
   <si>
-    <t>80235250</t>
+    <t>14038873</t>
   </si>
   <si>
     <t>5699005</t>
@@ -2064,7 +2064,7 @@
     <t>falls</t>
   </si>
   <si>
-    <t>126900593</t>
+    <t>60468049</t>
   </si>
   <si>
     <t>3762446</t>
@@ -2073,7 +2073,7 @@
     <t>diabetic</t>
   </si>
   <si>
-    <t>161476294</t>
+    <t>95272534</t>
   </si>
   <si>
     <t>5698926</t>
@@ -2082,10 +2082,10 @@
     <t>tachycardia</t>
   </si>
   <si>
-    <t>143378445</t>
-  </si>
-  <si>
-    <t>80235323</t>
+    <t>79089968</t>
+  </si>
+  <si>
+    <t>14038956</t>
   </si>
   <si>
     <t>3773679</t>
@@ -2094,7 +2094,7 @@
     <t>tension</t>
   </si>
   <si>
-    <t>125002977</t>
+    <t>58592287</t>
   </si>
   <si>
     <t>3116817</t>
@@ -2103,22 +2103,22 @@
     <t>bradycardia</t>
   </si>
   <si>
-    <t>80235270</t>
-  </si>
-  <si>
-    <t>80235261</t>
+    <t>14038886</t>
   </si>
   <si>
     <t>indicates</t>
   </si>
   <si>
+    <t>14038897</t>
+  </si>
+  <si>
     <t>4034175</t>
   </si>
   <si>
     <t>glaucoma</t>
   </si>
   <si>
-    <t>80235284</t>
+    <t>14038915</t>
   </si>
   <si>
     <t>5123922</t>
@@ -2127,7 +2127,7 @@
     <t>tachyarrhythmia</t>
   </si>
   <si>
-    <t>80235324</t>
+    <t>14038958</t>
   </si>
   <si>
     <t>4049124</t>
@@ -2136,7 +2136,7 @@
     <t>hyperthyroidism</t>
   </si>
   <si>
-    <t>124718055</t>
+    <t>58294279</t>
   </si>
   <si>
     <t>296383</t>
@@ -2145,7 +2145,7 @@
     <t>cardiomyopathy, dilated</t>
   </si>
   <si>
-    <t>128715941</t>
+    <t>62330897</t>
   </si>
   <si>
     <t>4611634</t>
@@ -2154,7 +2154,16 @@
     <t>ventricular fibrillation</t>
   </si>
   <si>
-    <t>80235329</t>
+    <t>14038968</t>
+  </si>
+  <si>
+    <t>130253</t>
+  </si>
+  <si>
+    <t>acidosis</t>
+  </si>
+  <si>
+    <t>14038857</t>
   </si>
   <si>
     <t>2517379</t>
@@ -2163,16 +2172,16 @@
     <t>adverse event</t>
   </si>
   <si>
-    <t>133264168</t>
-  </si>
-  <si>
-    <t>130253</t>
-  </si>
-  <si>
-    <t>acidosis</t>
-  </si>
-  <si>
-    <t>80235229</t>
+    <t>69589194</t>
+  </si>
+  <si>
+    <t>5806727</t>
+  </si>
+  <si>
+    <t>abnormal renal function</t>
+  </si>
+  <si>
+    <t>65609665</t>
   </si>
   <si>
     <t>4974855</t>
@@ -2181,7 +2190,7 @@
     <t>catalepsy</t>
   </si>
   <si>
-    <t>80235275</t>
+    <t>14038903</t>
   </si>
   <si>
     <t>2811301</t>
@@ -2190,7 +2199,7 @@
     <t>essential hypertension</t>
   </si>
   <si>
-    <t>118322367</t>
+    <t>52109950</t>
   </si>
   <si>
     <t>2423634</t>
@@ -2199,31 +2208,22 @@
     <t>intraocular pressure disorder</t>
   </si>
   <si>
-    <t>133297443</t>
-  </si>
-  <si>
-    <t>127913476</t>
-  </si>
-  <si>
-    <t>133297208</t>
-  </si>
-  <si>
-    <t>130135565</t>
-  </si>
-  <si>
-    <t>169889434</t>
-  </si>
-  <si>
-    <t>139426662</t>
-  </si>
-  <si>
-    <t>5806727</t>
-  </si>
-  <si>
-    <t>abnormal renal function</t>
-  </si>
-  <si>
-    <t>132016725</t>
+    <t>63661600</t>
+  </si>
+  <si>
+    <t>66901531</t>
+  </si>
+  <si>
+    <t>103673661</t>
+  </si>
+  <si>
+    <t>72939127</t>
+  </si>
+  <si>
+    <t>61516026</t>
+  </si>
+  <si>
+    <t>66901859</t>
   </si>
   <si>
     <t>2617691</t>
@@ -2232,10 +2232,10 @@
     <t>hypertensive (finding)</t>
   </si>
   <si>
-    <t>129225634</t>
-  </si>
-  <si>
-    <t>176613043</t>
+    <t>62852476</t>
+  </si>
+  <si>
+    <t>110483202</t>
   </si>
   <si>
     <t>2435336</t>
@@ -2244,7 +2244,7 @@
     <t>well adult</t>
   </si>
   <si>
-    <t>126756341</t>
+    <t>60363602</t>
   </si>
   <si>
     <t>3773536</t>
@@ -2253,7 +2253,7 @@
     <t>resting tremor</t>
   </si>
   <si>
-    <t>117900379</t>
+    <t>51695572</t>
   </si>
   <si>
     <t>795292</t>
@@ -2262,7 +2262,7 @@
     <t>waxy flexibility</t>
   </si>
   <si>
-    <t>80235276</t>
+    <t>14038905</t>
   </si>
   <si>
     <t>3781804</t>
@@ -2271,7 +2271,7 @@
     <t>metabolic acidosis</t>
   </si>
   <si>
-    <t>80235231</t>
+    <t>14038858</t>
   </si>
   <si>
     <t>575555</t>
@@ -2280,7 +2280,7 @@
     <t>atrioventricular block</t>
   </si>
   <si>
-    <t>80235256</t>
+    <t>14038880</t>
   </si>
   <si>
     <t>5060194</t>
@@ -2289,7 +2289,7 @@
     <t>dermatitis, allergic contact</t>
   </si>
   <si>
-    <t>179256081</t>
+    <t>113083049</t>
   </si>
   <si>
     <t>2510916</t>
@@ -2298,7 +2298,7 @@
     <t>hypotensive</t>
   </si>
   <si>
-    <t>129934915</t>
+    <t>63533450</t>
   </si>
   <si>
     <t>2448992</t>
@@ -2307,10 +2307,10 @@
     <t>vasodilation disorder</t>
   </si>
   <si>
-    <t>126416561</t>
-  </si>
-  <si>
-    <t>126415426</t>
+    <t>59996613</t>
+  </si>
+  <si>
+    <t>59997360</t>
   </si>
   <si>
     <t>4727221</t>
@@ -2319,10 +2319,10 @@
     <t>premature ventricular contractions</t>
   </si>
   <si>
-    <t>150806665</t>
-  </si>
-  <si>
-    <t>150806321</t>
+    <t>86307773</t>
+  </si>
+  <si>
+    <t>86308259</t>
   </si>
   <si>
     <t>447691</t>
@@ -2331,10 +2331,10 @@
     <t>hyperkalemia</t>
   </si>
   <si>
-    <t>80235288</t>
-  </si>
-  <si>
-    <t>155023223</t>
+    <t>14038921</t>
+  </si>
+  <si>
+    <t>88824575</t>
   </si>
   <si>
     <t>98828</t>
@@ -2343,7 +2343,7 @@
     <t>shock, cardiogenic</t>
   </si>
   <si>
-    <t>80235317</t>
+    <t>14038950</t>
   </si>
   <si>
     <t>4027735</t>
@@ -2352,7 +2352,7 @@
     <t>ocular hypertension</t>
   </si>
   <si>
-    <t>80235307</t>
+    <t>14038940</t>
   </si>
   <si>
     <t>1062196</t>
@@ -2361,7 +2361,7 @@
     <t>glaucoma, primary open angle</t>
   </si>
   <si>
-    <t>127913355</t>
+    <t>61515866</t>
   </si>
   <si>
     <t>3149324</t>
@@ -2370,7 +2370,7 @@
     <t>akathisia</t>
   </si>
   <si>
-    <t>159373325</t>
+    <t>93190716</t>
   </si>
   <si>
     <t>2356803</t>
@@ -2379,7 +2379,7 @@
     <t>increase in blood pressure</t>
   </si>
   <si>
-    <t>118323366</t>
+    <t>52110747</t>
   </si>
   <si>
     <t>363505</t>
@@ -2388,7 +2388,7 @@
     <t>glaucoma, open-angle</t>
   </si>
   <si>
-    <t>126053161</t>
+    <t>62881033</t>
   </si>
   <si>
     <t>3729730</t>
@@ -2397,7 +2397,7 @@
     <t>stable angina</t>
   </si>
   <si>
-    <t>140385402</t>
+    <t>74058219</t>
   </si>
   <si>
     <t>3199212</t>
@@ -2406,7 +2406,7 @@
     <t>abnormally opaque structure (morphologic abnormality)</t>
   </si>
   <si>
-    <t>129332454</t>
+    <t>62890183</t>
   </si>
   <si>
     <t>3120415</t>
@@ -2415,7 +2415,7 @@
     <t>peripheral perfusion</t>
   </si>
   <si>
-    <t>121754009</t>
+    <t>55322843</t>
   </si>
   <si>
     <t>2468997</t>
@@ -2424,7 +2424,7 @@
     <t>creatinine clearance</t>
   </si>
   <si>
-    <t>145888992</t>
+    <t>81438092</t>
   </si>
   <si>
     <t>4034943</t>
@@ -2433,7 +2433,7 @@
     <t>glycosuria</t>
   </si>
   <si>
-    <t>156874622</t>
+    <t>90689041</t>
   </si>
   <si>
     <t>122238</t>
@@ -2442,7 +2442,7 @@
     <t>glaucoma, suspect</t>
   </si>
   <si>
-    <t>80235305</t>
+    <t>14038939</t>
   </si>
   <si>
     <t>3372081</t>
@@ -2451,7 +2451,7 @@
     <t>acute myocardial ischemia</t>
   </si>
   <si>
-    <t>144484860</t>
+    <t>78093705</t>
   </si>
   <si>
     <t>4917056</t>
@@ -2460,7 +2460,16 @@
     <t>low tension glaucoma</t>
   </si>
   <si>
-    <t>183595003</t>
+    <t>117457779</t>
+  </si>
+  <si>
+    <t>2351002</t>
+  </si>
+  <si>
+    <t>abnormal ekg finding</t>
+  </si>
+  <si>
+    <t>66904893</t>
   </si>
   <si>
     <t>4027088</t>
@@ -2469,16 +2478,7 @@
     <t>ocular hypotension</t>
   </si>
   <si>
-    <t>140280021</t>
-  </si>
-  <si>
-    <t>2351002</t>
-  </si>
-  <si>
-    <t>abnormal ekg finding</t>
-  </si>
-  <si>
-    <t>133299227</t>
+    <t>73807284</t>
   </si>
   <si>
     <t>3751287</t>
@@ -2487,7 +2487,7 @@
     <t>viral myocarditis</t>
   </si>
   <si>
-    <t>128715860</t>
+    <t>62330849</t>
   </si>
   <si>
     <t>3772003</t>
@@ -2496,7 +2496,7 @@
     <t>increased intraocular pressure</t>
   </si>
   <si>
-    <t>167242570</t>
+    <t>101054195</t>
   </si>
   <si>
     <t>5792916</t>
@@ -2505,7 +2505,7 @@
     <t>atrial premature complexes</t>
   </si>
   <si>
-    <t>133300142</t>
+    <t>66905670</t>
   </si>
   <si>
     <t>2342858</t>
@@ -2514,7 +2514,7 @@
     <t>st segment depression (finding)</t>
   </si>
   <si>
-    <t>135235119</t>
+    <t>68832558</t>
   </si>
   <si>
     <t>3061916</t>
@@ -2523,7 +2523,7 @@
     <t>silent myocardial ischemia</t>
   </si>
   <si>
-    <t>162871500</t>
+    <t>96670663</t>
   </si>
   <si>
     <t>3767968</t>
@@ -2532,7 +2532,7 @@
     <t>eye irritation</t>
   </si>
   <si>
-    <t>133264110</t>
+    <t>69589082</t>
   </si>
   <si>
     <t>3773404</t>
@@ -2544,7 +2544,7 @@
     <t>Physiology</t>
   </si>
   <si>
-    <t>162871891</t>
+    <t>96671076</t>
   </si>
   <si>
     <t>3769667</t>
@@ -2553,10 +2553,10 @@
     <t>blood flow</t>
   </si>
   <si>
-    <t>162733079</t>
-  </si>
-  <si>
-    <t>120366578</t>
+    <t>96533251</t>
+  </si>
+  <si>
+    <t>54025805</t>
   </si>
   <si>
     <t>3816011</t>
@@ -2565,7 +2565,7 @@
     <t>vision</t>
   </si>
   <si>
-    <t>153544963</t>
+    <t>87224859</t>
   </si>
   <si>
     <t>3778105</t>
@@ -2574,10 +2574,10 @@
     <t>renal function</t>
   </si>
   <si>
-    <t>145889290</t>
-  </si>
-  <si>
-    <t>145888794</t>
+    <t>81438415</t>
+  </si>
+  <si>
+    <t>81437916</t>
   </si>
   <si>
     <t>4048421</t>
@@ -2586,7 +2586,7 @@
     <t>hemodynamics</t>
   </si>
   <si>
-    <t>183598365</t>
+    <t>117461118</t>
   </si>
   <si>
     <t>3815220</t>
@@ -2595,7 +2595,7 @@
     <t>platelet aggregation</t>
   </si>
   <si>
-    <t>122530621</t>
+    <t>56106827</t>
   </si>
   <si>
     <t>5648475</t>
@@ -2604,7 +2604,7 @@
     <t>vasodilation</t>
   </si>
   <si>
-    <t>126416889</t>
+    <t>59997941</t>
   </si>
   <si>
     <t>482261</t>
@@ -2613,10 +2613,19 @@
     <t>systolic pressure</t>
   </si>
   <si>
-    <t>123357748</t>
-  </si>
-  <si>
-    <t>191474127</t>
+    <t>56915843</t>
+  </si>
+  <si>
+    <t>125263273</t>
+  </si>
+  <si>
+    <t>5806595</t>
+  </si>
+  <si>
+    <t>circadian rhythms</t>
+  </si>
+  <si>
+    <t>52110382</t>
   </si>
   <si>
     <t>212978</t>
@@ -2625,7 +2634,7 @@
     <t>vascular constriction (function)</t>
   </si>
   <si>
-    <t>130135703</t>
+    <t>63661786</t>
   </si>
   <si>
     <t>4758392</t>
@@ -2634,16 +2643,7 @@
     <t>mental concentration</t>
   </si>
   <si>
-    <t>185516796</t>
-  </si>
-  <si>
-    <t>5806595</t>
-  </si>
-  <si>
-    <t>circadian rhythms</t>
-  </si>
-  <si>
-    <t>118323031</t>
+    <t>119374795</t>
   </si>
   <si>
     <t>3769410</t>
@@ -2652,7 +2652,7 @@
     <t>facilitation</t>
   </si>
   <si>
-    <t>130224595</t>
+    <t>63785312</t>
   </si>
   <si>
     <t>500157</t>
@@ -2661,7 +2661,7 @@
     <t>cardiac output</t>
   </si>
   <si>
-    <t>119600610</t>
+    <t>53319413</t>
   </si>
   <si>
     <t>5034357</t>
@@ -2670,7 +2670,7 @@
     <t>left ventricular function</t>
   </si>
   <si>
-    <t>182935521</t>
+    <t>116797403</t>
   </si>
   <si>
     <t>5796417</t>
@@ -2679,7 +2679,7 @@
     <t>glucose tolerance</t>
   </si>
   <si>
-    <t>161476710</t>
+    <t>95273010</t>
   </si>
   <si>
     <t>4868595</t>
@@ -2688,7 +2688,7 @@
     <t>vascular resistance</t>
   </si>
   <si>
-    <t>133633807</t>
+    <t>67294841</t>
   </si>
   <si>
     <t>552500</t>
@@ -2697,7 +2697,7 @@
     <t>cardiovascular physiological phenomena</t>
   </si>
   <si>
-    <t>135503849</t>
+    <t>69002971</t>
   </si>
   <si>
     <t>2966839</t>
@@ -2706,10 +2706,10 @@
     <t>renal blood flow</t>
   </si>
   <si>
-    <t>129227523</t>
-  </si>
-  <si>
-    <t>145889042</t>
+    <t>62781792</t>
+  </si>
+  <si>
+    <t>81438140</t>
   </si>
   <si>
     <t>4034080</t>
@@ -2718,7 +2718,7 @@
     <t>thermogenesis</t>
   </si>
   <si>
-    <t>176784004</t>
+    <t>110610168</t>
   </si>
   <si>
     <t>344335</t>
@@ -2727,10 +2727,10 @@
     <t>total peripheral resistance</t>
   </si>
   <si>
-    <t>173478237</t>
-  </si>
-  <si>
-    <t>119600200</t>
+    <t>53318895</t>
+  </si>
+  <si>
+    <t>107257820</t>
   </si>
   <si>
     <t>321680</t>
@@ -2739,7 +2739,7 @@
     <t>pulse rate</t>
   </si>
   <si>
-    <t>167234142</t>
+    <t>101026581</t>
   </si>
   <si>
     <t>2449009</t>
@@ -2748,7 +2748,7 @@
     <t>noradrenergic</t>
   </si>
   <si>
-    <t>155280015</t>
+    <t>89010540</t>
   </si>
   <si>
     <t>3001631</t>
@@ -2757,7 +2757,7 @@
     <t>positive chronotropy [pe]</t>
   </si>
   <si>
-    <t>132388233</t>
+    <t>66003382</t>
   </si>
   <si>
     <t>734846</t>
@@ -2766,7 +2766,7 @@
     <t>phosphorylase activity</t>
   </si>
   <si>
-    <t>126070550</t>
+    <t>59648297</t>
   </si>
   <si>
     <t>4810017</t>
@@ -2775,7 +2775,7 @@
     <t>adaptation, ocular</t>
   </si>
   <si>
-    <t>147269779</t>
+    <t>80886934</t>
   </si>
 </sst>
 </file>
@@ -2953,12 +2953,12 @@
         <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.661335468292236</v>
+        <v>6.661281108856201</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -3011,13 +3011,13 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
         <v>48</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.477343559265137</v>
+        <v>6.46829080581665</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -3087,7 +3087,7 @@
         <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -3116,7 +3116,7 @@
         <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -3145,12 +3145,12 @@
         <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.412039756774902</v>
+        <v>6.416760444641113</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.368198871612549</v>
+        <v>6.367502212524414</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -3203,13 +3203,13 @@
         <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
         <v>70</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
         <v>71</v>
@@ -3221,13 +3221,13 @@
         <v>72</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s">
         <v>73</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -3261,7 +3261,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.294765949249268</v>
+        <v>6.2799224853515625</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -3285,18 +3285,18 @@
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
         <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.26591157913208</v>
+        <v>6.265029430389404</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -3320,30 +3320,30 @@
         <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
         <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
         <v>86</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N13" t="s">
         <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.233105659484863</v>
+        <v>6.23288631439209</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.225582122802734</v>
+        <v>6.225135326385498</v>
       </c>
       <c r="B15" t="s">
         <v>91</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.209283351898193</v>
+        <v>6.216408729553223</v>
       </c>
       <c r="B16" t="s">
         <v>95</v>
@@ -3425,118 +3425,124 @@
         <v>97</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
         <v>98</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" t="s">
-        <v>100</v>
-      </c>
-      <c r="O16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.173554420471191</v>
+        <v>6.208587646484375</v>
       </c>
       <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
         <v>101</v>
       </c>
-      <c r="C17" t="s">
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
         <v>102</v>
       </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" t="s">
         <v>103</v>
       </c>
-      <c r="I17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" t="s">
         <v>104</v>
       </c>
-      <c r="K17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" t="s">
-        <v>105</v>
-      </c>
-      <c r="M17" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" t="s">
-        <v>106</v>
-      </c>
       <c r="O17" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.167388439178467</v>
+        <v>6.173973560333252</v>
       </c>
       <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" t="s">
         <v>108</v>
       </c>
-      <c r="C18" t="s">
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" t="s">
         <v>109</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="M18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" t="s">
         <v>110</v>
       </c>
-      <c r="I18" t="s">
+      <c r="O18" t="s">
         <v>31</v>
+      </c>
+      <c r="P18" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.141356945037842</v>
+        <v>6.167388439178467</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -3551,21 +3557,21 @@
         <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.136542797088623</v>
+        <v>6.14333963394165</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -3580,21 +3586,21 @@
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.115586757659912</v>
+        <v>6.141356945037842</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -3609,21 +3615,21 @@
         <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.09397029876709</v>
+        <v>6.136542797088623</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -3638,97 +3644,91 @@
         <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" t="s">
-        <v>124</v>
-      </c>
-      <c r="M22" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" t="s">
-        <v>125</v>
-      </c>
-      <c r="O22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.074921607971191</v>
+        <v>6.115586757659912</v>
       </c>
       <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
         <v>126</v>
       </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
-      </c>
       <c r="I23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" t="s">
-        <v>129</v>
-      </c>
-      <c r="K23" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.072176456451416</v>
+        <v>6.09397029876709</v>
       </c>
       <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" t="s">
         <v>131</v>
       </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="M24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" t="s">
         <v>132</v>
       </c>
-      <c r="I24" t="s">
-        <v>33</v>
+      <c r="O24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.062320232391357</v>
+        <v>6.074921607971191</v>
       </c>
       <c r="B25" t="s">
         <v>133</v>
@@ -3752,18 +3752,24 @@
         <v>135</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>94</v>
+      </c>
+      <c r="J25" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6.056209564208984</v>
+        <v>6.072176456451416</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -3778,21 +3784,21 @@
         <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.047888278961182</v>
+        <v>6.062861442565918</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
@@ -3807,21 +3813,21 @@
         <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.036194324493408</v>
+        <v>6.055879592895508</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -3836,21 +3842,21 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.033308029174805</v>
+        <v>6.047888278961182</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
@@ -3865,21 +3871,21 @@
         <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.012911319732666</v>
+        <v>6.036079406738281</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
@@ -3894,21 +3900,15 @@
         <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" t="s">
-        <v>151</v>
-      </c>
-      <c r="K30" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.000971794128418</v>
+        <v>6.033308029174805</v>
       </c>
       <c r="B31" t="s">
         <v>152</v>
@@ -3932,47 +3932,47 @@
         <v>154</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.996833801269531</v>
+        <v>6.012182235717773</v>
       </c>
       <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
         <v>156</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
         <v>157</v>
       </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
+        <v>94</v>
+      </c>
+      <c r="J32" t="s">
         <v>158</v>
       </c>
-      <c r="I32" t="s">
-        <v>33</v>
+      <c r="K32" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.975266456604004</v>
+        <v>6.001096725463867</v>
       </c>
       <c r="B33" t="s">
         <v>159</v>
@@ -3996,18 +3996,18 @@
         <v>161</v>
       </c>
       <c r="I33" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="J33" t="s">
         <v>162</v>
       </c>
       <c r="K33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.967113494873047</v>
+        <v>5.996833801269531</v>
       </c>
       <c r="B34" t="s">
         <v>163</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.925963401794434</v>
+        <v>5.975266456604004</v>
       </c>
       <c r="B35" t="s">
         <v>166</v>
@@ -4060,18 +4060,24 @@
         <v>168</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="J35" t="s">
+        <v>169</v>
+      </c>
+      <c r="K35" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.887041091918945</v>
+        <v>5.967113494873047</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
         <v>27</v>
@@ -4086,21 +4092,21 @@
         <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I36" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.878356456756592</v>
+        <v>5.925963401794434</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
@@ -4115,21 +4121,21 @@
         <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.875699996948242</v>
+        <v>5.887041091918945</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
@@ -4144,7 +4150,7 @@
         <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I38" t="s">
         <v>35</v>
@@ -4152,13 +4158,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.870675563812256</v>
+        <v>5.878356456756592</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
@@ -4173,45 +4179,21 @@
         <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I39" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" t="s">
-        <v>181</v>
-      </c>
-      <c r="K39" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" t="s">
-        <v>182</v>
-      </c>
-      <c r="M39" t="s">
-        <v>183</v>
-      </c>
-      <c r="N39" t="s">
-        <v>184</v>
-      </c>
-      <c r="O39" t="s">
-        <v>33</v>
-      </c>
-      <c r="P39" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.819985866546631</v>
+        <v>5.870675563812256</v>
       </c>
       <c r="B40" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
@@ -4226,21 +4208,45 @@
         <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I40" t="s">
         <v>33</v>
       </c>
+      <c r="J40" t="s">
+        <v>185</v>
+      </c>
+      <c r="K40" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" t="s">
+        <v>186</v>
+      </c>
+      <c r="M40" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" t="s">
+        <v>187</v>
+      </c>
+      <c r="O40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P40" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5.8047661781311035</v>
+        <v>5.819985866546631</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
@@ -4255,16 +4261,10 @@
         <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I41" t="s">
-        <v>53</v>
-      </c>
-      <c r="J41" t="s">
-        <v>192</v>
-      </c>
-      <c r="K41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
@@ -4293,7 +4293,7 @@
         <v>195</v>
       </c>
       <c r="I42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
@@ -4322,7 +4322,7 @@
         <v>198</v>
       </c>
       <c r="I43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J43" t="s">
         <v>199</v>
@@ -4357,12 +4357,12 @@
         <v>202</v>
       </c>
       <c r="I44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.755179405212402</v>
+        <v>5.754739761352539</v>
       </c>
       <c r="B45" t="s">
         <v>203</v>
@@ -4386,7 +4386,7 @@
         <v>205</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
@@ -4415,7 +4415,7 @@
         <v>208</v>
       </c>
       <c r="I46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
@@ -4444,12 +4444,12 @@
         <v>211</v>
       </c>
       <c r="I47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.739743232727051</v>
+        <v>5.739287376403809</v>
       </c>
       <c r="B48" t="s">
         <v>212</v>
@@ -4473,25 +4473,25 @@
         <v>214</v>
       </c>
       <c r="I48" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="J48" t="s">
         <v>215</v>
       </c>
       <c r="K48" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L48" t="s">
         <v>216</v>
       </c>
       <c r="M48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N48" t="s">
         <v>217</v>
       </c>
       <c r="O48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49">
@@ -4526,12 +4526,12 @@
         <v>221</v>
       </c>
       <c r="K49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.696433067321777</v>
+        <v>5.696181774139404</v>
       </c>
       <c r="B50" t="s">
         <v>222</v>
@@ -4555,7 +4555,7 @@
         <v>224</v>
       </c>
       <c r="I50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -4584,7 +4584,7 @@
         <v>227</v>
       </c>
       <c r="I51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
@@ -4613,7 +4613,7 @@
         <v>230</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -4642,7 +4642,7 @@
         <v>233</v>
       </c>
       <c r="I53" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -4676,7 +4676,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.517058372497559</v>
+        <v>5.517438888549805</v>
       </c>
       <c r="B55" t="s">
         <v>237</v>
@@ -4700,49 +4700,49 @@
         <v>239</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J55" t="s">
         <v>240</v>
       </c>
       <c r="K55" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L55" t="s">
         <v>241</v>
       </c>
       <c r="M55" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N55" t="s">
         <v>242</v>
       </c>
       <c r="O55" t="s">
+        <v>46</v>
+      </c>
+      <c r="P55" t="s">
         <v>243</v>
-      </c>
-      <c r="P55" t="s">
-        <v>244</v>
       </c>
       <c r="Q55" t="s">
         <v>53</v>
       </c>
       <c r="R55" t="s">
+        <v>244</v>
+      </c>
+      <c r="S55" t="s">
         <v>245</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>246</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>247</v>
-      </c>
-      <c r="U55" t="s">
-        <v>49</v>
       </c>
       <c r="V55" t="s">
         <v>248</v>
       </c>
       <c r="W55" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56">
@@ -4771,7 +4771,7 @@
         <v>251</v>
       </c>
       <c r="I56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
@@ -4800,7 +4800,7 @@
         <v>254</v>
       </c>
       <c r="I57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58">
@@ -4829,7 +4829,7 @@
         <v>257</v>
       </c>
       <c r="I58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59">
@@ -4858,19 +4858,19 @@
         <v>260</v>
       </c>
       <c r="I59" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J59" t="s">
         <v>261</v>
       </c>
       <c r="K59" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L59" t="s">
         <v>262</v>
       </c>
       <c r="M59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60">
@@ -4905,7 +4905,7 @@
         <v>266</v>
       </c>
       <c r="K60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61">
@@ -4934,7 +4934,7 @@
         <v>269</v>
       </c>
       <c r="I61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J61" t="s">
         <v>270</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.370017051696777</v>
+        <v>5.363025188446045</v>
       </c>
       <c r="B62" t="s">
         <v>271</v>
@@ -4998,7 +4998,7 @@
         <v>276</v>
       </c>
       <c r="I63" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64">
@@ -5027,13 +5027,13 @@
         <v>279</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J64" t="s">
         <v>280</v>
       </c>
       <c r="K64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
@@ -5062,12 +5062,12 @@
         <v>283</v>
       </c>
       <c r="I65" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.272305965423584</v>
+        <v>5.272973537445068</v>
       </c>
       <c r="B66" t="s">
         <v>284</v>
@@ -5091,13 +5091,13 @@
         <v>286</v>
       </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J66" t="s">
         <v>287</v>
       </c>
       <c r="K66" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
@@ -5126,7 +5126,7 @@
         <v>290</v>
       </c>
       <c r="I67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68">
@@ -5160,7 +5160,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5.137910842895508</v>
+        <v>5.133334636688232</v>
       </c>
       <c r="B69" t="s">
         <v>294</v>
@@ -5184,7 +5184,7 @@
         <v>296</v>
       </c>
       <c r="I69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
@@ -5218,7 +5218,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5.096882343292236</v>
+        <v>5.09788179397583</v>
       </c>
       <c r="B71" t="s">
         <v>300</v>
@@ -5242,7 +5242,7 @@
         <v>302</v>
       </c>
       <c r="I71" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
@@ -5271,12 +5271,12 @@
         <v>305</v>
       </c>
       <c r="I72" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5.086758136749268</v>
+        <v>5.0877814292907715</v>
       </c>
       <c r="B73" t="s">
         <v>306</v>
@@ -5300,7 +5300,7 @@
         <v>308</v>
       </c>
       <c r="I73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
@@ -5329,12 +5329,12 @@
         <v>311</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4.959079742431641</v>
+        <v>4.957703113555908</v>
       </c>
       <c r="B75" t="s">
         <v>312</v>
@@ -5358,47 +5358,53 @@
         <v>314</v>
       </c>
       <c r="I75" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4.956322193145752</v>
+        <v>4.918785095214844</v>
       </c>
       <c r="B76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
         <v>315</v>
       </c>
-      <c r="C76" t="s">
+      <c r="I76" t="s">
+        <v>35</v>
+      </c>
+      <c r="J76" t="s">
         <v>316</v>
       </c>
-      <c r="D76" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" t="s">
-        <v>28</v>
-      </c>
-      <c r="F76" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" t="s">
-        <v>27</v>
-      </c>
-      <c r="H76" t="s">
-        <v>317</v>
-      </c>
-      <c r="I76" t="s">
-        <v>31</v>
+      <c r="K76" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4.918785095214844</v>
+        <v>4.893961429595947</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>318</v>
       </c>
       <c r="D77" t="s">
         <v>27</v>
@@ -5413,21 +5419,15 @@
         <v>27</v>
       </c>
       <c r="H77" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I77" t="s">
-        <v>33</v>
-      </c>
-      <c r="J77" t="s">
-        <v>319</v>
-      </c>
-      <c r="K77" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4.893961429595947</v>
+        <v>4.8776936531066895</v>
       </c>
       <c r="B78" t="s">
         <v>320</v>
@@ -5451,7 +5451,7 @@
         <v>322</v>
       </c>
       <c r="I78" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79">
@@ -5480,7 +5480,7 @@
         <v>325</v>
       </c>
       <c r="I79" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80">
@@ -5509,7 +5509,7 @@
         <v>328</v>
       </c>
       <c r="I80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
@@ -5538,7 +5538,7 @@
         <v>331</v>
       </c>
       <c r="I81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82">
@@ -5567,7 +5567,7 @@
         <v>334</v>
       </c>
       <c r="I82" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83">
@@ -5596,7 +5596,7 @@
         <v>337</v>
       </c>
       <c r="I83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
@@ -5625,13 +5625,13 @@
         <v>340</v>
       </c>
       <c r="I84" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J84" t="s">
         <v>341</v>
       </c>
       <c r="K84" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85">
@@ -5660,13 +5660,13 @@
         <v>344</v>
       </c>
       <c r="I85" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J85" t="s">
         <v>345</v>
       </c>
       <c r="K85" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86">
@@ -5695,7 +5695,7 @@
         <v>348</v>
       </c>
       <c r="I86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J86" t="s">
         <v>349</v>
@@ -5736,7 +5736,7 @@
         <v>353</v>
       </c>
       <c r="K87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
@@ -5771,7 +5771,7 @@
         <v>357</v>
       </c>
       <c r="K88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89">
@@ -5800,19 +5800,19 @@
         <v>360</v>
       </c>
       <c r="I89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J89" t="s">
         <v>361</v>
       </c>
       <c r="K89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L89" t="s">
         <v>362</v>
       </c>
       <c r="M89" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90">
@@ -5841,25 +5841,25 @@
         <v>365</v>
       </c>
       <c r="I90" t="s">
+        <v>189</v>
+      </c>
+      <c r="J90" t="s">
         <v>366</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
+        <v>33</v>
+      </c>
+      <c r="L90" t="s">
         <v>367</v>
       </c>
-      <c r="K90" t="s">
-        <v>37</v>
-      </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>368</v>
-      </c>
-      <c r="M90" t="s">
-        <v>183</v>
       </c>
       <c r="N90" t="s">
         <v>369</v>
       </c>
       <c r="O90" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91">
@@ -5888,7 +5888,7 @@
         <v>372</v>
       </c>
       <c r="I91" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92">
@@ -5917,7 +5917,7 @@
         <v>375</v>
       </c>
       <c r="I92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93">
@@ -5946,13 +5946,13 @@
         <v>378</v>
       </c>
       <c r="I93" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J93" t="s">
         <v>379</v>
       </c>
       <c r="K93" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94">
@@ -5981,7 +5981,7 @@
         <v>382</v>
       </c>
       <c r="I94" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95">
@@ -6010,7 +6010,7 @@
         <v>385</v>
       </c>
       <c r="I95" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96">
@@ -6039,7 +6039,7 @@
         <v>388</v>
       </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J96" t="s">
         <v>389</v>
@@ -6074,7 +6074,7 @@
         <v>392</v>
       </c>
       <c r="I97" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98">
@@ -6103,7 +6103,7 @@
         <v>395</v>
       </c>
       <c r="I98" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -6132,7 +6132,7 @@
         <v>398</v>
       </c>
       <c r="I99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J99" t="s">
         <v>399</v>
@@ -6167,7 +6167,7 @@
         <v>402</v>
       </c>
       <c r="I100" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101">
@@ -6370,7 +6370,7 @@
         <v>424</v>
       </c>
       <c r="I107" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108">
@@ -6399,7 +6399,7 @@
         <v>427</v>
       </c>
       <c r="I108" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109">
@@ -6434,7 +6434,7 @@
         <v>431</v>
       </c>
       <c r="K109" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110">
@@ -6463,13 +6463,13 @@
         <v>434</v>
       </c>
       <c r="I110" t="s">
-        <v>183</v>
+        <v>409</v>
       </c>
       <c r="J110" t="s">
         <v>435</v>
       </c>
       <c r="K110" t="s">
-        <v>409</v>
+        <v>189</v>
       </c>
     </row>
     <row r="111">
@@ -6498,7 +6498,7 @@
         <v>438</v>
       </c>
       <c r="I111" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112">
@@ -6767,7 +6767,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.736932754516602</v>
+        <v>7.736767768859863</v>
       </c>
       <c r="B2" t="s">
         <v>457</v>
@@ -6825,7 +6825,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.160597801208496</v>
+        <v>7.156944274902344</v>
       </c>
       <c r="B4" t="s">
         <v>466</v>
@@ -6854,7 +6854,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.046058654785156</v>
+        <v>7.045732021331787</v>
       </c>
       <c r="B5" t="s">
         <v>469</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.751471042633057</v>
+        <v>6.750827789306641</v>
       </c>
       <c r="B9" t="s">
         <v>481</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.738488674163818</v>
+        <v>6.738397598266602</v>
       </c>
       <c r="B10" t="s">
         <v>484</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.691651344299316</v>
+        <v>6.690913200378418</v>
       </c>
       <c r="B11" t="s">
         <v>488</v>
@@ -7057,7 +7057,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.676718711853027</v>
+        <v>6.663268089294434</v>
       </c>
       <c r="B12" t="s">
         <v>491</v>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.654793739318848</v>
+        <v>6.654821395874023</v>
       </c>
       <c r="B13" t="s">
         <v>495</v>
@@ -7110,19 +7110,19 @@
         <v>497</v>
       </c>
       <c r="I13" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="J13" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K13" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L13" t="s">
         <v>500</v>
       </c>
       <c r="M13" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14">
@@ -7151,13 +7151,13 @@
         <v>503</v>
       </c>
       <c r="I14" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="J14" t="s">
         <v>504</v>
       </c>
       <c r="K14" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15">
@@ -7220,7 +7220,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.355587959289551</v>
+        <v>6.355643272399902</v>
       </c>
       <c r="B17" t="s">
         <v>511</v>
@@ -7244,12 +7244,12 @@
         <v>513</v>
       </c>
       <c r="I17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.254786014556885</v>
+        <v>6.2544379234313965</v>
       </c>
       <c r="B18" t="s">
         <v>514</v>
@@ -7331,7 +7331,7 @@
         <v>522</v>
       </c>
       <c r="I20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21">
@@ -7365,7 +7365,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.0297017097473145</v>
+        <v>6.029351234436035</v>
       </c>
       <c r="B22" t="s">
         <v>526</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.940117835998535</v>
+        <v>5.9343366622924805</v>
       </c>
       <c r="B24" t="s">
         <v>532</v>
@@ -7510,7 +7510,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.842129707336426</v>
+        <v>5.832120418548584</v>
       </c>
       <c r="B27" t="s">
         <v>542</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.682888507843018</v>
+        <v>5.683666706085205</v>
       </c>
       <c r="B30" t="s">
         <v>551</v>
@@ -7998,13 +7998,13 @@
         <v>592</v>
       </c>
       <c r="I43" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="J43" t="s">
         <v>593</v>
       </c>
       <c r="K43" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44">
@@ -8157,7 +8157,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.473997116088867</v>
+        <v>6.474416732788086</v>
       </c>
       <c r="B2" t="s">
         <v>600</v>
@@ -8181,12 +8181,12 @@
         <v>603</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.102153778076172</v>
+        <v>6.105698108673096</v>
       </c>
       <c r="B3" t="s">
         <v>604</v>
@@ -8210,12 +8210,12 @@
         <v>606</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.081502914428711</v>
+        <v>6.0819172859191895</v>
       </c>
       <c r="B4" t="s">
         <v>607</v>
@@ -8239,12 +8239,12 @@
         <v>609</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.839422702789307</v>
+        <v>5.839784622192383</v>
       </c>
       <c r="B5" t="s">
         <v>610</v>
@@ -8268,24 +8268,24 @@
         <v>612</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>613</v>
       </c>
       <c r="J5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K5" t="s">
         <v>494</v>
       </c>
       <c r="L5" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M5" t="s">
-        <v>615</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.647758483886719</v>
+        <v>5.644367694854736</v>
       </c>
       <c r="B6" t="s">
         <v>616</v>
@@ -8309,7 +8309,7 @@
         <v>618</v>
       </c>
       <c r="I6" t="s">
-        <v>494</v>
+        <v>613</v>
       </c>
       <c r="J6" t="s">
         <v>619</v>
@@ -8321,12 +8321,12 @@
         <v>620</v>
       </c>
       <c r="M6" t="s">
-        <v>615</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.3441877365112305</v>
+        <v>5.356469631195068</v>
       </c>
       <c r="B7" t="s">
         <v>621</v>
@@ -8350,12 +8350,12 @@
         <v>623</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.171199798583984</v>
+        <v>5.173722267150879</v>
       </c>
       <c r="B8" t="s">
         <v>624</v>
@@ -8379,7 +8379,7 @@
         <v>626</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -8474,7 +8474,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.818962574005127</v>
+        <v>6.818525791168213</v>
       </c>
       <c r="B2" t="s">
         <v>627</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.660407066345215</v>
+        <v>6.662914752960205</v>
       </c>
       <c r="B3" t="s">
         <v>632</v>
@@ -8527,18 +8527,18 @@
         <v>634</v>
       </c>
       <c r="I3" t="s">
+        <v>631</v>
+      </c>
+      <c r="J3" t="s">
         <v>635</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>636</v>
-      </c>
-      <c r="K3" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.6151838302612305</v>
+        <v>6.6152143478393555</v>
       </c>
       <c r="B4" t="s">
         <v>637</v>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.457695484161377</v>
+        <v>6.462508201599121</v>
       </c>
       <c r="B6" t="s">
         <v>644</v>
@@ -8626,36 +8626,18 @@
         <v>647</v>
       </c>
       <c r="K6" t="s">
-        <v>465</v>
-      </c>
-      <c r="L6" t="s">
-        <v>648</v>
-      </c>
-      <c r="M6" t="s">
-        <v>487</v>
-      </c>
-      <c r="N6" t="s">
-        <v>649</v>
-      </c>
-      <c r="O6" t="s">
-        <v>650</v>
-      </c>
-      <c r="P6" t="s">
-        <v>651</v>
-      </c>
-      <c r="Q6" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.453137397766113</v>
+        <v>6.457695484161377</v>
       </c>
       <c r="B7" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D7" t="s">
         <v>629</v>
@@ -8670,16 +8652,34 @@
         <v>27</v>
       </c>
       <c r="H7" t="s">
+        <v>650</v>
+      </c>
+      <c r="I7" t="s">
+        <v>494</v>
+      </c>
+      <c r="J7" t="s">
+        <v>651</v>
+      </c>
+      <c r="K7" t="s">
+        <v>652</v>
+      </c>
+      <c r="L7" t="s">
+        <v>653</v>
+      </c>
+      <c r="M7" t="s">
+        <v>487</v>
+      </c>
+      <c r="N7" t="s">
         <v>654</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>631</v>
       </c>
-      <c r="J7" t="s">
+      <c r="P7" t="s">
         <v>655</v>
       </c>
-      <c r="K7" t="s">
-        <v>494</v>
+      <c r="Q7" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="8">
@@ -8708,13 +8708,13 @@
         <v>658</v>
       </c>
       <c r="I8" t="s">
-        <v>631</v>
+        <v>465</v>
       </c>
       <c r="J8" t="s">
         <v>659</v>
       </c>
       <c r="K8" t="s">
-        <v>465</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9">
@@ -8772,25 +8772,25 @@
         <v>665</v>
       </c>
       <c r="I10" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="J10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K10" t="s">
         <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M10" t="s">
         <v>494</v>
       </c>
       <c r="N10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O10" t="s">
-        <v>669</v>
+        <v>631</v>
       </c>
       <c r="P10" t="s">
         <v>670</v>
@@ -8801,7 +8801,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.3011274337768555</v>
+        <v>6.302063941955566</v>
       </c>
       <c r="B11" t="s">
         <v>671</v>
@@ -8830,7 +8830,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.215115070343018</v>
+        <v>6.222146034240723</v>
       </c>
       <c r="B12" t="s">
         <v>674</v>
@@ -8859,7 +8859,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.20758056640625</v>
+        <v>6.214733600616455</v>
       </c>
       <c r="B13" t="s">
         <v>677</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.18709659576416</v>
+        <v>6.193471908569336</v>
       </c>
       <c r="B14" t="s">
         <v>680</v>
@@ -8912,7 +8912,7 @@
         <v>682</v>
       </c>
       <c r="I14" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15">
@@ -8946,7 +8946,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.116352558135986</v>
+        <v>6.122433662414551</v>
       </c>
       <c r="B16" t="s">
         <v>686</v>
@@ -8970,7 +8970,7 @@
         <v>688</v>
       </c>
       <c r="I16" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="J16" t="s">
         <v>689</v>
@@ -9010,7 +9010,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.083158493041992</v>
+        <v>6.086246013641357</v>
       </c>
       <c r="B18" t="s">
         <v>693</v>
@@ -9034,18 +9034,18 @@
         <v>695</v>
       </c>
       <c r="I18" t="s">
+        <v>696</v>
+      </c>
+      <c r="J18" t="s">
+        <v>697</v>
+      </c>
+      <c r="K18" t="s">
         <v>631</v>
-      </c>
-      <c r="J18" t="s">
-        <v>696</v>
-      </c>
-      <c r="K18" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.016297817230225</v>
+        <v>6.0240583419799805</v>
       </c>
       <c r="B19" t="s">
         <v>698</v>
@@ -9103,7 +9103,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.949069976806641</v>
+        <v>5.951873302459717</v>
       </c>
       <c r="B21" t="s">
         <v>704</v>
@@ -9132,7 +9132,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.922389030456543</v>
+        <v>5.929802894592285</v>
       </c>
       <c r="B22" t="s">
         <v>707</v>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.921790599822998</v>
+        <v>5.924477577209473</v>
       </c>
       <c r="B23" t="s">
         <v>710</v>
@@ -9190,7 +9190,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.914694309234619</v>
+        <v>5.920440673828125</v>
       </c>
       <c r="B24" t="s">
         <v>713</v>
@@ -9214,12 +9214,12 @@
         <v>715</v>
       </c>
       <c r="I24" t="s">
-        <v>631</v>
+        <v>696</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.9133219718933105</v>
+        <v>5.914694309234619</v>
       </c>
       <c r="B25" t="s">
         <v>716</v>
@@ -9243,12 +9243,12 @@
         <v>718</v>
       </c>
       <c r="I25" t="s">
-        <v>697</v>
+        <v>631</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.903905868530273</v>
+        <v>5.906085014343262</v>
       </c>
       <c r="B26" t="s">
         <v>719</v>
@@ -9277,7 +9277,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.8971428871154785</v>
+        <v>5.903905868530273</v>
       </c>
       <c r="B27" t="s">
         <v>722</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.887851238250732</v>
+        <v>5.896984577178955</v>
       </c>
       <c r="B28" t="s">
         <v>725</v>
@@ -9330,48 +9330,18 @@
         <v>727</v>
       </c>
       <c r="I28" t="s">
-        <v>669</v>
-      </c>
-      <c r="J28" t="s">
-        <v>728</v>
-      </c>
-      <c r="K28" t="s">
         <v>631</v>
-      </c>
-      <c r="L28" t="s">
-        <v>729</v>
-      </c>
-      <c r="M28" t="s">
-        <v>635</v>
-      </c>
-      <c r="N28" t="s">
-        <v>730</v>
-      </c>
-      <c r="O28" t="s">
-        <v>494</v>
-      </c>
-      <c r="P28" t="s">
-        <v>731</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>487</v>
-      </c>
-      <c r="R28" t="s">
-        <v>732</v>
-      </c>
-      <c r="S28" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.884763717651367</v>
+        <v>5.887851238250732</v>
       </c>
       <c r="B29" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C29" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D29" t="s">
         <v>629</v>
@@ -9386,10 +9356,40 @@
         <v>27</v>
       </c>
       <c r="H29" t="s">
+        <v>730</v>
+      </c>
+      <c r="I29" t="s">
+        <v>494</v>
+      </c>
+      <c r="J29" t="s">
+        <v>731</v>
+      </c>
+      <c r="K29" t="s">
+        <v>636</v>
+      </c>
+      <c r="L29" t="s">
+        <v>732</v>
+      </c>
+      <c r="M29" t="s">
+        <v>487</v>
+      </c>
+      <c r="N29" t="s">
+        <v>733</v>
+      </c>
+      <c r="O29" t="s">
+        <v>498</v>
+      </c>
+      <c r="P29" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>631</v>
+      </c>
+      <c r="R29" t="s">
         <v>735</v>
       </c>
-      <c r="I29" t="s">
-        <v>631</v>
+      <c r="S29" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="30">
@@ -9458,7 +9458,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.824880599975586</v>
+        <v>5.82767915725708</v>
       </c>
       <c r="B32" t="s">
         <v>743</v>
@@ -9516,7 +9516,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5.773891925811768</v>
+        <v>5.775782108306885</v>
       </c>
       <c r="B34" t="s">
         <v>749</v>
@@ -9540,12 +9540,12 @@
         <v>751</v>
       </c>
       <c r="I34" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5.725624084472656</v>
+        <v>5.74110746383667</v>
       </c>
       <c r="B35" t="s">
         <v>752</v>
@@ -9569,7 +9569,7 @@
         <v>754</v>
       </c>
       <c r="I35" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="36">
@@ -9598,7 +9598,7 @@
         <v>757</v>
       </c>
       <c r="I36" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="37">
@@ -9656,13 +9656,13 @@
         <v>763</v>
       </c>
       <c r="I38" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="J38" t="s">
         <v>764</v>
       </c>
       <c r="K38" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39">
@@ -9691,18 +9691,18 @@
         <v>767</v>
       </c>
       <c r="I39" t="s">
-        <v>635</v>
+        <v>487</v>
       </c>
       <c r="J39" t="s">
         <v>768</v>
       </c>
       <c r="K39" t="s">
-        <v>487</v>
+        <v>636</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5.616849422454834</v>
+        <v>5.617754936218262</v>
       </c>
       <c r="B40" t="s">
         <v>769</v>
@@ -9726,7 +9726,7 @@
         <v>771</v>
       </c>
       <c r="I40" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J40" t="s">
         <v>772</v>
@@ -9761,7 +9761,7 @@
         <v>775</v>
       </c>
       <c r="I41" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="42">
@@ -9795,7 +9795,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.495222091674805</v>
+        <v>5.496420383453369</v>
       </c>
       <c r="B43" t="s">
         <v>779</v>
@@ -9848,7 +9848,7 @@
         <v>784</v>
       </c>
       <c r="I44" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="45">
@@ -9964,7 +9964,7 @@
         <v>796</v>
       </c>
       <c r="I48" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="49">
@@ -10027,7 +10027,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5.336763858795166</v>
+        <v>5.339061737060547</v>
       </c>
       <c r="B51" t="s">
         <v>803</v>
@@ -10143,7 +10143,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.1057963371276855</v>
+        <v>5.113569259643555</v>
       </c>
       <c r="B55" t="s">
         <v>815</v>
@@ -10167,12 +10167,12 @@
         <v>817</v>
       </c>
       <c r="I55" t="s">
-        <v>631</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.088801860809326</v>
+        <v>5.1057963371276855</v>
       </c>
       <c r="B56" t="s">
         <v>818</v>
@@ -10196,7 +10196,7 @@
         <v>820</v>
       </c>
       <c r="I56" t="s">
-        <v>494</v>
+        <v>631</v>
       </c>
     </row>
     <row r="57">
@@ -10230,7 +10230,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.00346040725708</v>
+        <v>5.008395671844482</v>
       </c>
       <c r="B58" t="s">
         <v>824</v>
@@ -10518,7 +10518,7 @@
         <v>845</v>
       </c>
       <c r="I3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J3" t="s">
         <v>846</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.133242607116699</v>
+        <v>6.133058547973633</v>
       </c>
       <c r="B4" t="s">
         <v>847</v>
@@ -10582,7 +10582,7 @@
         <v>852</v>
       </c>
       <c r="I5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J5" t="s">
         <v>853</v>
@@ -10622,7 +10622,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.988951206207275</v>
+        <v>6.002093315124512</v>
       </c>
       <c r="B7" t="s">
         <v>857</v>
@@ -10715,7 +10715,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.889628887176514</v>
+        <v>5.890273571014404</v>
       </c>
       <c r="B10" t="s">
         <v>867</v>
@@ -10739,12 +10739,12 @@
         <v>869</v>
       </c>
       <c r="I10" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.8698320388793945</v>
+        <v>5.889628887176514</v>
       </c>
       <c r="B11" t="s">
         <v>870</v>
@@ -10773,7 +10773,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.808281421661377</v>
+        <v>5.8698320388793945</v>
       </c>
       <c r="B12" t="s">
         <v>873</v>
@@ -10797,7 +10797,7 @@
         <v>875</v>
       </c>
       <c r="I12" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13">
@@ -10855,7 +10855,7 @@
         <v>881</v>
       </c>
       <c r="I14" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15">
@@ -11064,13 +11064,13 @@
         <v>903</v>
       </c>
       <c r="I21" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="J21" t="s">
         <v>904</v>
       </c>
       <c r="K21" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22">
